--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AC/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AC/20/seed2/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.206</v>
+        <v>-21.92</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.686</v>
+        <v>-21.742</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -645,7 +645,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.26</v>
+        <v>-13.182</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-22.026</v>
+        <v>-22.163</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.834</v>
+        <v>-20.432</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.628</v>
+        <v>-12.617</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -743,7 +743,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.076</v>
+        <v>-12.5</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.286</v>
+        <v>-20.246</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-11.328</v>
+        <v>-12.198</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.55</v>
+        <v>-21.839</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.782</v>
+        <v>-22.129</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.762</v>
+        <v>-13.431</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.286</v>
+        <v>-12.985</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.042</v>
+        <v>-21.265</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-13.542</v>
+        <v>-13.045</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -981,7 +981,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.954</v>
+        <v>-12.82</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.454</v>
+        <v>-20.016</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1065,7 +1065,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.364</v>
+        <v>-13.122</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.81</v>
+        <v>-11.205</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-13.142</v>
+        <v>-13.482</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.284</v>
+        <v>-11.655</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1171,13 +1171,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.798</v>
+        <v>-21.836</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-12.524</v>
+        <v>-12.789</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1191,7 +1191,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.144</v>
+        <v>-12.91</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.3</v>
+        <v>-22.129</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.992</v>
+        <v>-13.734</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.36</v>
+        <v>-22.523</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.356</v>
+        <v>-21.484</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.57</v>
+        <v>-21.519</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1415,7 +1415,7 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.348</v>
+        <v>-11.983</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1429,7 +1429,7 @@
         <v>4.58</v>
       </c>
       <c r="C71" t="n">
-        <v>-11.07</v>
+        <v>-11.362</v>
       </c>
       <c r="D71" t="n">
         <v>-7.44</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.234</v>
+        <v>-21.008</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.162</v>
+        <v>-21.963</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1639,7 +1639,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.724</v>
+        <v>-13.883</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1653,7 +1653,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-12.718</v>
+        <v>-13.329</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1681,7 +1681,7 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-13.692</v>
+        <v>-13.376</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.722</v>
+        <v>-20.744</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.398</v>
+        <v>-21.508</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.36</v>
+        <v>-22.276</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.322</v>
+        <v>-12.721</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-21.736</v>
+        <v>-21.902</v>
       </c>
       <c r="B103" t="n">
         <v>5.09</v>
